--- a/BackTest/2020-01-14 BackTest IOST.xlsx
+++ b/BackTest/2020-01-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>1169368.126</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>510629.9777000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>486201.7775000005</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-572952.5619999995</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-567129.8151999995</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-2756320.863</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-2727169.8163</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-2685000.774699999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-2684900.774699999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-2685500.774699999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-2685000.774699999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-2713743.914499999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-2689660.087299999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-2769734.663399999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,19 @@
         <v>-3354688.0846</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>5.803</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.803</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2239,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.803</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2278,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.803</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,22 +2546,15 @@
         <v>-3555726.9227</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2766,22 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2808,22 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2848,26 +2645,19 @@
         <v>-3871013.764999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5.768</v>
       </c>
       <c r="J68" t="n">
         <v>5.768</v>
       </c>
-      <c r="K68" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2892,26 +2682,23 @@
         <v>-3869402.764999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="J69" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,26 +2723,23 @@
         <v>-3883142.137899999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5.808</v>
       </c>
       <c r="J70" t="n">
-        <v>5.808</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2980,26 +2764,23 @@
         <v>-3906648.993099999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>5.779</v>
       </c>
       <c r="J71" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3024,26 +2805,23 @@
         <v>-3666414.977299999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="J72" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3068,26 +2846,23 @@
         <v>-3589414.977299999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>5.779</v>
       </c>
       <c r="J73" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3112,26 +2887,21 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>5.826</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3156,26 +2926,23 @@
         <v>-3669940.954507069</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5.828</v>
       </c>
       <c r="J75" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3200,26 +2967,23 @@
         <v>-3666940.954507069</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>5.805</v>
       </c>
       <c r="J76" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3244,24 +3008,23 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>5.841</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3286,24 +3049,23 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>5.845</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3328,24 +3090,23 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>5.845</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3372,22 +3133,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3414,22 +3172,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3456,22 +3211,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3498,22 +3250,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3540,22 +3289,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3582,22 +3328,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,22 +3367,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3666,22 +3406,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3708,22 +3445,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3750,22 +3484,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3792,22 +3523,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3834,22 +3562,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3876,22 +3601,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3916,24 +3638,23 @@
         <v>-3402949.383707069</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3960,22 +3681,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4000,24 +3718,23 @@
         <v>-3410207.878207069</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>5.921</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4044,22 +3761,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4086,22 +3800,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4128,22 +3839,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4168,26 +3876,21 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K99" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4212,26 +3915,21 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4256,26 +3954,21 @@
         <v>-3369315.022107069</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4300,26 +3993,21 @@
         <v>-3330160.767207069</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.922</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4346,22 +4034,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4388,22 +4073,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4428,24 +4110,21 @@
         <v>-3319876.767207069</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4470,24 +4149,21 @@
         <v>-3321558.818307069</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4512,24 +4188,21 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.768</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4554,26 +4227,21 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4598,26 +4266,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J109" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4642,26 +4307,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J110" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4686,26 +4348,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J111" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4730,26 +4389,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J112" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4776,24 +4432,19 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,26 +4469,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J114" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4862,26 +4510,23 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J115" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4906,26 +4551,23 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>5.901</v>
       </c>
       <c r="J116" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4950,26 +4592,23 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>5.883</v>
       </c>
       <c r="J117" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4994,26 +4633,23 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>5.883</v>
       </c>
       <c r="J118" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5038,26 +4674,23 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>5.873</v>
       </c>
       <c r="J119" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5082,28 +4715,25 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J120" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>5.768</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest IOST.xlsx
+++ b/BackTest/2020-01-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1169368.126</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>469343.1827000005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>677712.4196000005</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>510629.9777000005</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>500189.2155000005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>486201.7775000005</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-572952.5619999995</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-567129.8151999995</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2756320.863</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2727169.8163</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2685000.774699999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2684900.774699999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2685500.774699999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2685000.774699999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2713743.914499999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2689660.087299999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2769734.663399999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2200,14 +2200,10 @@
         <v>-3354688.0846</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5.803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2240,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2629,10 @@
         <v>-3871013.764999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.768</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2682,19 +2662,15 @@
         <v>-3869402.764999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.78</v>
       </c>
       <c r="J69" t="n">
-        <v>5.768</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.78</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2723,13 +2699,11 @@
         <v>-3883142.137899999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2764,13 +2738,13 @@
         <v>-3906648.993099999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5.779</v>
       </c>
       <c r="J71" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2805,13 +2779,13 @@
         <v>-3666414.977299999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>5.75</v>
       </c>
       <c r="J72" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2846,13 +2820,13 @@
         <v>-3589414.977299999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>5.779</v>
       </c>
       <c r="J73" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2887,11 +2861,13 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.826</v>
+      </c>
       <c r="J74" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2926,13 +2902,13 @@
         <v>-3669940.954507069</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>5.828</v>
       </c>
       <c r="J75" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2967,13 +2943,13 @@
         <v>-3666940.954507069</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>5.805</v>
       </c>
       <c r="J76" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3008,13 +2984,13 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5.841</v>
       </c>
       <c r="J77" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3049,13 +3025,11 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3090,13 +3064,13 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5.845</v>
       </c>
       <c r="J79" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3135,7 +3109,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3170,11 +3144,13 @@
         <v>-3488863.305907069</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J81" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3213,7 +3189,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3252,7 +3228,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3291,7 +3267,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3330,7 +3306,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3369,7 +3345,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3408,7 +3384,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3447,7 +3423,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3486,7 +3462,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3525,7 +3501,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3564,7 +3540,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3603,7 +3579,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3638,13 +3614,11 @@
         <v>-3402949.383707069</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3683,7 +3657,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3718,13 +3692,11 @@
         <v>-3410207.878207069</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3763,7 +3735,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3802,7 +3774,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3841,7 +3813,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3880,7 +3852,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3919,7 +3891,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3958,7 +3930,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3997,7 +3969,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4036,7 +4008,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4075,7 +4047,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4110,11 +4082,11 @@
         <v>-3319876.767207069</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4149,11 +4121,11 @@
         <v>-3321558.818307069</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4188,11 +4160,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4227,11 +4199,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J108" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4266,13 +4240,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>5.901</v>
       </c>
       <c r="J109" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4307,13 +4281,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>5.901</v>
       </c>
       <c r="J110" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4348,13 +4322,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>5.901</v>
       </c>
       <c r="J111" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4389,13 +4363,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>5.901</v>
       </c>
       <c r="J112" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4432,9 +4406,11 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J113" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4469,13 +4445,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>5.901</v>
       </c>
       <c r="J114" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4510,13 +4486,13 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>5.901</v>
       </c>
       <c r="J115" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4551,13 +4527,13 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>5.901</v>
       </c>
       <c r="J116" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4592,13 +4568,13 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>5.883</v>
       </c>
       <c r="J117" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4633,13 +4609,13 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>5.883</v>
       </c>
       <c r="J118" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4674,13 +4650,13 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>5.873</v>
       </c>
       <c r="J119" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4715,13 +4691,13 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>5.87</v>
       </c>
       <c r="J120" t="n">
-        <v>5.768</v>
+        <v>5.78</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4734,6 +4710,6 @@
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest IOST.xlsx
+++ b/BackTest/2020-01-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1169368.126</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>469343.1827000005</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>677712.4196000005</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>510629.9777000005</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>500189.2155000005</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1405783.075999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2717922.6723</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2756320.863</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2727169.8163</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>-3869402.764999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2702,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2743,9 +2733,7 @@
       <c r="I71" t="n">
         <v>5.779</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2784,9 +2772,7 @@
       <c r="I72" t="n">
         <v>5.75</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,9 +2811,7 @@
       <c r="I73" t="n">
         <v>5.779</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,14 +2845,10 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5.826</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,14 +2882,10 @@
         <v>-3669940.954507069</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,9 +2924,7 @@
       <c r="I76" t="n">
         <v>5.805</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,14 +2958,10 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.841</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,9 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,14 +3032,10 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.845</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3108,9 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,14 +3106,10 @@
         <v>-3488863.305907069</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,9 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,9 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,9 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,9 +3257,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,9 +3331,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,9 +3368,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,9 +3405,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,9 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,9 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,9 +3516,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,9 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3664,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3738,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3775,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,9 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,9 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,20 +4068,16 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4199,19 +4103,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4240,19 +4136,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4281,19 +4169,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4322,19 +4202,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4363,19 +4235,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4404,19 +4268,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4445,19 +4301,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4486,19 +4334,11 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4527,19 +4367,11 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4568,19 +4400,11 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4609,19 +4433,11 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4650,19 +4466,11 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4691,25 +4499,17 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest IOST.xlsx
+++ b/BackTest/2020-01-14 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1169368.126</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>469343.1827000005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>677712.4196000005</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>510629.9777000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>500189.2155000005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2845,9 +2845,11 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.826</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2882,9 +2884,11 @@
         <v>-3669940.954507069</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.828</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2958,9 +2962,11 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.841</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -2995,9 +3001,11 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.845</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3069,9 +3077,11 @@
         <v>-3522863.305907069</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.845</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3106,9 +3116,11 @@
         <v>-3488863.305907069</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3772,9 +3784,11 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3809,9 +3823,11 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3846,9 +3862,11 @@
         <v>-3369315.022107069</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3883,9 +3901,11 @@
         <v>-3330160.767207069</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.922</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4068,16 +4088,18 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4103,11 +4125,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4164,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4203,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +4242,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +4281,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4268,11 +4320,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4359,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4398,17 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +4437,17 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4400,11 +4476,17 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.883</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4433,11 +4515,17 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.883</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4554,17 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5.873</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4593,17 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest IOST.xlsx
+++ b/BackTest/2020-01-14 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33404.5807</v>
       </c>
       <c r="G2" t="n">
-        <v>1247161.544100001</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>166</v>
       </c>
       <c r="G3" t="n">
-        <v>1247327.544100001</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>19320.6007</v>
       </c>
       <c r="G4" t="n">
-        <v>1228006.9434</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>51722.6577</v>
       </c>
       <c r="G5" t="n">
-        <v>1176284.2857</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2781.4872</v>
       </c>
       <c r="G6" t="n">
-        <v>1176284.2857</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6916.1597</v>
       </c>
       <c r="G7" t="n">
-        <v>1169368.126</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>39852.3967</v>
       </c>
       <c r="G8" t="n">
-        <v>1129515.7293</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>127681</v>
       </c>
       <c r="G9" t="n">
-        <v>1001834.7293</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10.3663</v>
       </c>
       <c r="G10" t="n">
-        <v>1001834.7293</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>532491.5466</v>
       </c>
       <c r="G11" t="n">
-        <v>469343.1827000005</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>167584.1646</v>
       </c>
       <c r="G12" t="n">
-        <v>636927.3473000005</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>8802.385200000001</v>
       </c>
       <c r="G13" t="n">
-        <v>645729.7325000005</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>120316.7085</v>
       </c>
       <c r="G14" t="n">
-        <v>645729.7325000005</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>31982.6871</v>
       </c>
       <c r="G15" t="n">
-        <v>677712.4196000005</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>167082.4419</v>
       </c>
       <c r="G16" t="n">
-        <v>510629.9777000005</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10440.7622</v>
       </c>
       <c r="G17" t="n">
-        <v>500189.2155000005</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>13987.438</v>
       </c>
       <c r="G18" t="n">
-        <v>486201.7775000005</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1059154.3395</v>
       </c>
       <c r="G19" t="n">
-        <v>-572952.5619999995</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5822.7468</v>
       </c>
       <c r="G20" t="n">
-        <v>-567129.8151999995</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>838653.2608</v>
       </c>
       <c r="G21" t="n">
-        <v>-1405783.075999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>543499.894</v>
       </c>
       <c r="G22" t="n">
-        <v>-1405783.075999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>354639.2891</v>
       </c>
       <c r="G23" t="n">
-        <v>-1405783.075999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1312139.5963</v>
       </c>
       <c r="G24" t="n">
-        <v>-2717922.6723</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>418550.7826</v>
       </c>
       <c r="G25" t="n">
-        <v>-2717922.6723</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>72605.53720000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-2717922.6723</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1297324.0468</v>
       </c>
       <c r="G27" t="n">
-        <v>-2717922.6723</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>38398.1907</v>
       </c>
       <c r="G28" t="n">
-        <v>-2756320.863</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>18103.9111</v>
       </c>
       <c r="G29" t="n">
-        <v>-2738216.9519</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>11047.1356</v>
       </c>
       <c r="G30" t="n">
-        <v>-2727169.8163</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>42169.0416</v>
       </c>
       <c r="G31" t="n">
-        <v>-2685000.774699999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>-2684900.774699999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>600</v>
       </c>
       <c r="G33" t="n">
-        <v>-2685500.774699999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>-2685000.774699999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>-2684800.774699999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>28943.1398</v>
       </c>
       <c r="G36" t="n">
-        <v>-2713743.914499999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>25183.8272</v>
       </c>
       <c r="G37" t="n">
-        <v>-2688560.087299999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2100</v>
       </c>
       <c r="G38" t="n">
-        <v>-2690660.087299999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-2689660.087299999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>80074.57610000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-2769734.663399999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>53836.031</v>
       </c>
       <c r="G41" t="n">
-        <v>-2823570.694399999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1600</v>
       </c>
       <c r="G42" t="n">
-        <v>-2825170.694399999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>10000000</v>
       </c>
       <c r="G43" t="n">
-        <v>-2825170.694399999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>164500000</v>
       </c>
       <c r="G44" t="n">
-        <v>-2825170.694399999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>525674.5033</v>
       </c>
       <c r="G45" t="n">
-        <v>-3350845.197699999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>321279.7058</v>
       </c>
       <c r="G46" t="n">
-        <v>-3672124.9035</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>188263.011</v>
       </c>
       <c r="G47" t="n">
-        <v>-3672124.9035</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>235925.615</v>
       </c>
       <c r="G48" t="n">
-        <v>-3436199.2885</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>111111</v>
       </c>
       <c r="G49" t="n">
-        <v>-3547310.2885</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>36578.532</v>
       </c>
       <c r="G50" t="n">
-        <v>-3510731.7565</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>11141.929</v>
       </c>
       <c r="G51" t="n">
-        <v>-3521873.6855</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1969.071</v>
       </c>
       <c r="G52" t="n">
-        <v>-3521873.6855</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>155555</v>
       </c>
       <c r="G53" t="n">
-        <v>-3677428.6855</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>311110</v>
       </c>
       <c r="G54" t="n">
-        <v>-3366318.6855</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>11630.6009</v>
       </c>
       <c r="G55" t="n">
-        <v>-3354688.0846</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>20836.9311</v>
       </c>
       <c r="G56" t="n">
-        <v>-3354688.0846</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>14161.5084</v>
       </c>
       <c r="G57" t="n">
-        <v>-3368849.593</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>3029.54</v>
       </c>
       <c r="G58" t="n">
-        <v>-3368849.593</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3118.3091</v>
       </c>
       <c r="G59" t="n">
-        <v>-3368849.593</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>16219.6588</v>
       </c>
       <c r="G60" t="n">
-        <v>-3385069.2518</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>12663.6009</v>
       </c>
       <c r="G61" t="n">
-        <v>-3397732.8527</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3111</v>
       </c>
       <c r="G62" t="n">
-        <v>-3394621.8527</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>80000</v>
       </c>
       <c r="G63" t="n">
-        <v>-3474621.8527</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>8105.07</v>
       </c>
       <c r="G64" t="n">
-        <v>-3482726.9227</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>73000</v>
       </c>
       <c r="G65" t="n">
-        <v>-3555726.9227</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>318288.036</v>
       </c>
       <c r="G66" t="n">
-        <v>-3874014.958699999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1.1937</v>
       </c>
       <c r="G67" t="n">
-        <v>-3874013.764999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3000</v>
       </c>
       <c r="G68" t="n">
-        <v>-3871013.764999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1611</v>
       </c>
       <c r="G69" t="n">
-        <v>-3869402.764999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>13739.3729</v>
       </c>
       <c r="G70" t="n">
-        <v>-3883142.137899999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,24 +2513,15 @@
         <v>23506.8552</v>
       </c>
       <c r="G71" t="n">
-        <v>-3906648.993099999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2764,24 +2543,21 @@
         <v>240234.0158</v>
       </c>
       <c r="G72" t="n">
-        <v>-3666414.977299999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
         <v>5.75</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2803,24 +2579,21 @@
         <v>77000</v>
       </c>
       <c r="G73" t="n">
-        <v>-3589414.977299999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
         <v>5.779</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,24 +2615,21 @@
         <v>41180.50789293</v>
       </c>
       <c r="G74" t="n">
-        <v>-3548234.469407069</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
         <v>5.826</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2881,24 +2651,19 @@
         <v>121706.4851</v>
       </c>
       <c r="G75" t="n">
-        <v>-3669940.954507069</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2920,24 +2685,19 @@
         <v>3000</v>
       </c>
       <c r="G76" t="n">
-        <v>-3666940.954507069</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2959,24 +2719,19 @@
         <v>24077.6486</v>
       </c>
       <c r="G77" t="n">
-        <v>-3642863.305907069</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.841</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2998,24 +2753,19 @@
         <v>7899.7145</v>
       </c>
       <c r="G78" t="n">
-        <v>-3642863.305907069</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.845</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3037,22 +2787,19 @@
         <v>18689.5879</v>
       </c>
       <c r="G79" t="n">
-        <v>-3642863.305907069</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3074,24 +2821,19 @@
         <v>120000</v>
       </c>
       <c r="G80" t="n">
-        <v>-3522863.305907069</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.845</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,24 +2855,19 @@
         <v>34000</v>
       </c>
       <c r="G81" t="n">
-        <v>-3488863.305907069</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3152,22 +2889,19 @@
         <v>7619.4177</v>
       </c>
       <c r="G82" t="n">
-        <v>-3496482.723607069</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3189,22 +2923,19 @@
         <v>133000</v>
       </c>
       <c r="G83" t="n">
-        <v>-3363482.723607069</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3226,22 +2957,19 @@
         <v>27619.9198</v>
       </c>
       <c r="G84" t="n">
-        <v>-3391102.643407069</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3263,22 +2991,19 @@
         <v>12318.3644</v>
       </c>
       <c r="G85" t="n">
-        <v>-3378784.279007069</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3300,22 +3025,19 @@
         <v>22341.7101</v>
       </c>
       <c r="G86" t="n">
-        <v>-3401125.989107069</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3337,22 +3059,19 @@
         <v>30229.709</v>
       </c>
       <c r="G87" t="n">
-        <v>-3431355.698107069</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3374,22 +3093,19 @@
         <v>3352.3936</v>
       </c>
       <c r="G88" t="n">
-        <v>-3434708.091707069</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3411,22 +3127,19 @@
         <v>1872.5173</v>
       </c>
       <c r="G89" t="n">
-        <v>-3432835.574407069</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3448,22 +3161,19 @@
         <v>11119.8008</v>
       </c>
       <c r="G90" t="n">
-        <v>-3443955.375207069</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3485,22 +3195,19 @@
         <v>15332.8607</v>
       </c>
       <c r="G91" t="n">
-        <v>-3443955.375207069</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3522,22 +3229,19 @@
         <v>6026.1554</v>
       </c>
       <c r="G92" t="n">
-        <v>-3443955.375207069</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3559,22 +3263,19 @@
         <v>41005.9915</v>
       </c>
       <c r="G93" t="n">
-        <v>-3402949.383707069</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3596,22 +3297,19 @@
         <v>40662.2207</v>
       </c>
       <c r="G94" t="n">
-        <v>-3362287.163007069</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3633,22 +3331,19 @@
         <v>47920.7152</v>
       </c>
       <c r="G95" t="n">
-        <v>-3410207.878207069</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3670,22 +3365,19 @@
         <v>16848.64</v>
       </c>
       <c r="G96" t="n">
-        <v>-3393359.238207069</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3707,22 +3399,19 @@
         <v>24144.216</v>
       </c>
       <c r="G97" t="n">
-        <v>-3369215.022207069</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3744,22 +3433,19 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-3369315.022207069</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3781,24 +3467,19 @@
         <v>85</v>
       </c>
       <c r="G99" t="n">
-        <v>-3369315.022207069</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3820,24 +3501,19 @@
         <v>171000</v>
       </c>
       <c r="G100" t="n">
-        <v>-3369315.022207069</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3859,24 +3535,19 @@
         <v>0.0001</v>
       </c>
       <c r="G101" t="n">
-        <v>-3369315.022107069</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3898,24 +3569,19 @@
         <v>39154.2549</v>
       </c>
       <c r="G102" t="n">
-        <v>-3330160.767207069</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.922</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3937,22 +3603,19 @@
         <v>5784</v>
       </c>
       <c r="G103" t="n">
-        <v>-3324376.767207069</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3974,22 +3637,19 @@
         <v>4500</v>
       </c>
       <c r="G104" t="n">
-        <v>-3319876.767207069</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4011,22 +3671,19 @@
         <v>137443.9103</v>
       </c>
       <c r="G105" t="n">
-        <v>-3319876.767207069</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4048,22 +3705,19 @@
         <v>1682.0511</v>
       </c>
       <c r="G106" t="n">
-        <v>-3321558.818307069</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4085,22 +3739,19 @@
         <v>799703.6501</v>
       </c>
       <c r="G107" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4122,24 +3773,19 @@
         <v>282392.7901</v>
       </c>
       <c r="G108" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4161,24 +3807,19 @@
         <v>11974.8519</v>
       </c>
       <c r="G109" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4200,24 +3841,19 @@
         <v>17044.6213</v>
       </c>
       <c r="G110" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4239,24 +3875,19 @@
         <v>17198.3575</v>
       </c>
       <c r="G111" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4278,24 +3909,19 @@
         <v>1920186.1919</v>
       </c>
       <c r="G112" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4317,24 +3943,19 @@
         <v>58000</v>
       </c>
       <c r="G113" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4356,24 +3977,19 @@
         <v>685000</v>
       </c>
       <c r="G114" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4395,24 +4011,19 @@
         <v>8736.9571</v>
       </c>
       <c r="G115" t="n">
-        <v>-4121262.468407068</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4434,24 +4045,19 @@
         <v>16848.6399</v>
       </c>
       <c r="G116" t="n">
-        <v>-4138111.108307068</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4473,24 +4079,19 @@
         <v>0.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>-4138111.108307068</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4512,24 +4113,19 @@
         <v>57000</v>
       </c>
       <c r="G118" t="n">
-        <v>-4195111.108307068</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.883</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4551,24 +4147,19 @@
         <v>210.7471</v>
       </c>
       <c r="G119" t="n">
-        <v>-4195321.855407069</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4590,24 +4181,19 @@
         <v>15183.8803</v>
       </c>
       <c r="G120" t="n">
-        <v>-4180137.975107069</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
